--- a/InterviewTest/output/230166/230166_pass.xlsx
+++ b/InterviewTest/output/230166/230166_pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230166\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C934C2-7FF8-4239-97D9-25D89B82FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E6745-185C-4935-A84F-CCB1C7EC674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  LY_CH: 10</t>
+    <t>Example:  LY_CH: 14</t>
   </si>
   <si>
     <t>Example:  LY_CH</t>

--- a/InterviewTest/output/230166/230166_pass.xlsx
+++ b/InterviewTest/output/230166/230166_pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230166\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230166\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E6745-185C-4935-A84F-CCB1C7EC674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40159DA0-B25F-49BF-9516-646B42D67A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39663</v>
+        <v>39515</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230166/230166_pass.xlsx
+++ b/InterviewTest/output/230166/230166_pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230166\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230166\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40159DA0-B25F-49BF-9516-646B42D67A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00FD27-501D-44B5-ABCF-3FEC3D0CDB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
